--- a/tuition.xlsx
+++ b/tuition.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\Documents\Visual Studio 2022\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCDD40BD-937A-4C41-9F8B-266177B0968D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD6ED49-5524-4784-9F71-42A3B137BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B67CCE9-E6E1-4DD2-A0C9-0C7E062B745B}"/>
   </bookViews>
@@ -42,13 +42,13 @@
     <t>Tuition</t>
   </si>
   <si>
-    <t>Business</t>
+    <t>business</t>
   </si>
   <si>
-    <t>Economics</t>
+    <t>economics</t>
   </si>
   <si>
-    <t>Finance</t>
+    <t>finance</t>
   </si>
 </sst>
 </file>

--- a/tuition.xlsx
+++ b/tuition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quint\Documents\Visual Studio 2022\register\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD6ED49-5524-4784-9F71-42A3B137BFD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486716CF-403F-4594-BBFB-1E639EF6EFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9B67CCE9-E6E1-4DD2-A0C9-0C7E062B745B}"/>
   </bookViews>
@@ -36,12 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>Tuition</t>
-  </si>
-  <si>
     <t>business</t>
   </si>
   <si>
@@ -49,6 +43,12 @@
   </si>
   <si>
     <t>finance</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>tuition</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,15 +413,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -437,7 +437,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>300</v>
